--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Pipedrive_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Pipedrive_DE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7A6796-17BB-489D-BB55-F5EF08284763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FCD140-28E8-4E3F-A038-E9999CA4355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="checkbox">Specifications!#REF!,Specifications!#REF!,Specifications!$C$6:$D$24</definedName>
-    <definedName name="Field_type">Specifications!$I$6:$I$24,Specifications!$Q$6:$Q$24,Specifications!#REF!,Specifications!$U$6:$U$24,Specifications!$Y$6:$Y$24,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$27:$I$35,Specifications!$Q$27:$Q$35,Specifications!#REF!,Specifications!$U$27:$U$35,Specifications!$Y$27:$Y$35</definedName>
+    <definedName name="checkbox">Specifications!#REF!,Specifications!#REF!,Specifications!$C$6:$D$27</definedName>
+    <definedName name="Field_type">Specifications!$I$6:$I$27,Specifications!$Q$6:$Q$27,Specifications!#REF!,Specifications!$U$6:$U$27,Specifications!$Y$6:$Y$27,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$30:$I$35,Specifications!$Q$30:$Q$35,Specifications!#REF!,Specifications!$U$30:$U$35,Specifications!$Y$30:$Y$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -195,6 +195,30 @@
   </si>
   <si>
     <t>Notizen</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Beispiel Nicht-benötigtes Feld</t>
+  </si>
+  <si>
+    <t>Nicht benötigt</t>
+  </si>
+  <si>
+    <t>Nicht Benötigt</t>
+  </si>
+  <si>
+    <t>Beispiel Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Pflichfeld</t>
+  </si>
+  <si>
+    <t>(= Felder mit automatischem Wert)</t>
   </si>
 </sst>
 </file>
@@ -308,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -330,17 +354,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -352,24 +365,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
@@ -389,7 +384,7 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
       <bottom style="thin">
@@ -407,135 +402,16 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -692,19 +568,6 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -807,50 +670,6 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF26292C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF26292C"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF26292C"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF26292C"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
@@ -952,6 +771,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF868E96"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FF868E96"/>
       </left>
@@ -959,7 +791,33 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF868E96"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF868E96"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF868E96"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -970,100 +828,13 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF868E96"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF868E96"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF868E96"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thick">
         <color rgb="FF868E96"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF868E96"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF868E96"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF868E96"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right style="thick">
@@ -1140,195 +911,545 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1469,11 +1590,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="firstColumn" dxfId="42"/>
+      <tableStyleElement type="firstRowStripe" dxfId="41"/>
+      <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1584,13 +1705,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1952,10 +2073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,8 +2098,8 @@
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -1988,959 +2109,1022 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="O2" s="38"/>
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="O2" s="21"/>
     </row>
-    <row r="3" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:33" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="G3" s="94" t="s">
+      <c r="E3" s="14"/>
+      <c r="G3" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="94" t="s">
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="O3" s="94" t="s">
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="O3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="S3" s="91" t="s">
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="S3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="92"/>
-      <c r="U3" s="93"/>
-      <c r="W3" s="91" t="s">
+      <c r="T3" s="56"/>
+      <c r="U3" s="57"/>
+      <c r="W3" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="93"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="57"/>
     </row>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="26" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="50" t="s">
+      <c r="Q5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="62" t="s">
+      <c r="S5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="63" t="s">
+      <c r="T5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="64" t="s">
+      <c r="U5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="62" t="s">
+      <c r="W5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="63" t="s">
+      <c r="X5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="64" t="s">
+      <c r="Y5" s="34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="30"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="52"/>
+    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="G6" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="52"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="52"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="66"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="66"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="28"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="28"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="42"/>
     </row>
-    <row r="7" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="17"/>
+      <c r="G7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="28"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="28"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="42"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="17"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="28"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="28"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="42"/>
+    </row>
+    <row r="9" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="31"/>
-      <c r="G7" s="53" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="17"/>
+      <c r="F9"/>
+      <c r="G9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="54"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="54"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="76"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="76"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="28"/>
+      <c r="N9"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="28"/>
+      <c r="R9"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="42"/>
+      <c r="V9"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="31"/>
-      <c r="G8" s="53" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="17"/>
+      <c r="G10" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="54"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="54"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="76"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="67"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="28"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="28"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="42"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="35"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="31"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="53" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="17"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="54" t="s">
+      <c r="M11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="53"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="54"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="76"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="67"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="28"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="42"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="35"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="31"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="53" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="17"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="54" t="s">
+      <c r="M12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="54"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="76"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="67"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="28"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="42"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="42"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="53" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="17"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="52" t="s">
+      <c r="M13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="51"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="52"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="76"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="67"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="28"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="42"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="42"/>
     </row>
-    <row r="12" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="14" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="31"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="53" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="17"/>
+      <c r="F14"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="56" t="s">
+      <c r="M14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="56"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="79"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="70"/>
+      <c r="N14"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="28"/>
+      <c r="R14"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="42"/>
+      <c r="V14"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="31"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="53" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="17"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="58" t="s">
+      <c r="M15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="57"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="58"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="76"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="67"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="28"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="42"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="42"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="31"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="53" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="17"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="54" t="s">
+      <c r="M16" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="54"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="76"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="67"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="28"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="42"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="42"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="31"/>
-      <c r="G15" s="53" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="17"/>
+      <c r="G17" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="54"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="54"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="76"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="67"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="28"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="28"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="42"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="42"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="31"/>
-      <c r="G16" s="53" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="17"/>
+      <c r="G18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I18" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="54"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="54"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="76"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="67"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="28"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="28"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="42"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="42"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="G17" s="53" t="s">
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="17"/>
+      <c r="G19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="54"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="54"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="76"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="67"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="28"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="28"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="42"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="42"/>
     </row>
-    <row r="18" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="31"/>
-      <c r="G18" s="55" t="s">
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="17"/>
+      <c r="F20"/>
+      <c r="G20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I20" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="56"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="56"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="79"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="70"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="28"/>
+      <c r="N20"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="28"/>
+      <c r="R20"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="42"/>
+      <c r="V20"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="31"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="54"/>
-      <c r="O19" s="53" t="s">
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="17"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="28"/>
+      <c r="O21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" s="54" t="s">
+      <c r="Q21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="S19" s="74"/>
-      <c r="T19" s="75"/>
-      <c r="U19" s="76"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="67"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="42"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="42"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="31"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="52"/>
-      <c r="O20" s="51" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="17"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="28"/>
+      <c r="O22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="52" t="s">
+      <c r="Q22" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="80"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="82"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="66"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="42"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="42"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="31"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="52"/>
-      <c r="O21" s="51" t="s">
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="17"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="28"/>
+      <c r="O23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="52" t="s">
+      <c r="Q23" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="S21" s="80"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="82"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="66"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="42"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="42"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="31"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="52"/>
-      <c r="O22" s="51" t="s">
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="17"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="28"/>
+      <c r="O24" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="52" t="s">
+      <c r="Q24" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="S22" s="65"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="66"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="66"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="42"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="42"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="52"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="52"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="66"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="66"/>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="17"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="28"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="28"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="42"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="42"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="32"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="61"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="61"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="73"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="73"/>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="17"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="28"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="28"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="42"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="42"/>
     </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+    <row r="27" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="18"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="31"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="39"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="39"/>
     </row>
-    <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="90" t="s">
+    <row r="28" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G29" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I29" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="48" t="s">
+      <c r="K29" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L26" s="49" t="s">
+      <c r="L29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="50" t="s">
+      <c r="M29" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="O26" s="48" t="s">
+      <c r="O29" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="P26" s="49" t="s">
+      <c r="P29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="50" t="s">
+      <c r="Q29" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="S26" s="62" t="s">
+      <c r="S29" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="T26" s="63" t="s">
+      <c r="T29" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="U26" s="64" t="s">
+      <c r="U29" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W26" s="62" t="s">
+      <c r="W29" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="X26" s="63" t="s">
+      <c r="X29" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Y26" s="64" t="s">
+      <c r="Y29" s="34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+    <row r="30" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="15"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="28"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="28"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="28"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="35"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="35"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B31" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="28"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="54"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="54"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="54"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="67"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="67"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="15"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="28"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="28"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="28"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="35"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="35"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B32" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="28"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="54"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="54"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="54"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="67"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="67"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="28"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="54"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="54"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="54"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="67"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="67"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="28"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="54"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="54"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="54"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="67"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="67"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="28"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="54"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="54"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="54"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="67"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="67"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="28"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="54"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="54"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="54"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="67"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="67"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="15"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="28"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="28"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="28"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="35"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="35"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="28"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="54"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="54"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="54"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="67"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="67"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="15"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="28"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="28"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="28"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="35"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="35"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="28"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="54"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="54"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="54"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="67"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="67"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="15"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="28"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="28"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="28"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="35"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="35"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="29"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="61"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="61"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="61"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="73"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="73"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="16"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="31"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="31"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="39"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="39"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A27:Y35" name="questionnaire"/>
-    <protectedRange sqref="F6:R24" name="Contact Fields"/>
-    <protectedRange sqref="S3:Y22 S23:Y35" name="customEntity"/>
-    <protectedRange sqref="A6:E24" name="Contact Fields_1"/>
+    <protectedRange sqref="A30:Y35" name="questionnaire"/>
+    <protectedRange sqref="F6:I27 K6:M27 O6:Q27" name="Contact Fields"/>
+    <protectedRange sqref="S3:Y35" name="customEntity"/>
+    <protectedRange sqref="A6:E26" name="Contact Fields_1"/>
+    <protectedRange sqref="A27:E27" name="Contact Fields_2"/>
   </protectedRanges>
-  <mergeCells count="10">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
+  <mergeCells count="7">
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="S3:U3"/>
@@ -2950,35 +3134,171 @@
     <mergeCell ref="K3:M3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F7:AG24">
-    <cfRule type="expression" dxfId="5" priority="17">
+  <conditionalFormatting sqref="G9:I27 K9:M27 O9:Q27 S9:U27 W9:Y27">
+    <cfRule type="expression" dxfId="39" priority="53">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="54">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W30:Y35 S30:U35 O30:Q35 G30:I35 K30:M35">
+    <cfRule type="expression" dxfId="37" priority="51">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="52">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="35" priority="5">
+      <formula>$C17="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="6">
+      <formula>$D17="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:E15 C18:E26 C16">
+    <cfRule type="expression" dxfId="33" priority="31">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="32">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B15 A18:B26">
+    <cfRule type="expression" dxfId="31" priority="29">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="30">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:E8">
+    <cfRule type="expression" dxfId="29" priority="23">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="24">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E7">
+    <cfRule type="expression" dxfId="27" priority="19">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="20">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="25" priority="21">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="22">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E16">
+    <cfRule type="expression" dxfId="23" priority="33">
+      <formula>$C17="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="34">
+      <formula>$D16="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
+    <cfRule type="expression" dxfId="21" priority="35">
+      <formula>$C17="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="36">
+      <formula>$D16="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:E17">
+    <cfRule type="expression" dxfId="19" priority="25">
+      <formula>$C18="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="26">
+      <formula>$D17="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17">
+    <cfRule type="expression" dxfId="17" priority="27">
+      <formula>$C18="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="28">
+      <formula>$D17="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27:Y35 S27:U35 O27:Q35 G27:I35 K27:M35">
-    <cfRule type="expression" dxfId="3" priority="15">
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:E27">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:E24">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>$D7="x"</formula>
+  <conditionalFormatting sqref="G6:I8 K6:M8 O6:Q8 S6:U8 W6:Y8">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{482B0EC0-02CE-4334-BE6E-8AA5B58C3E7D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D27" xr:uid="{482B0EC0-02CE-4334-BE6E-8AA5B58C3E7D}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I24 M6:M24 Q6:Q24 U6:U24 Y6:Y24 I27:I35 M27:M35 Q27:Q35 U27:U35 Y27:Y35" xr:uid="{9972E2DC-0D98-4B85-B7B2-CD185E418B86}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I27 M6:M27 Q6:Q27 U6:U27 Y6:Y27 Y30:Y35 U30:U35 Q30:Q35 M30:M35 I30:I35" xr:uid="{9972E2DC-0D98-4B85-B7B2-CD185E418B86}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Pipedrive_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Pipedrive_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FCD140-28E8-4E3F-A038-E9999CA4355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80691991-9259-4945-9774-84D61F8F74BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>CRM System: Pipedrive</t>
-  </si>
-  <si>
-    <t>Pflichtfel</t>
   </si>
   <si>
     <t>nicht benötigt</t>
@@ -1041,18 +1038,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1070,6 +1055,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2076,7 +2073,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,44 +2111,44 @@
       <c r="K2" s="21"/>
       <c r="O2" s="21"/>
     </row>
-    <row r="3" spans="1:33" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="14"/>
-      <c r="G3" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="G3" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="O3" s="58" t="s">
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="O3" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="S3" s="55" t="s">
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="S3" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="56"/>
-      <c r="U3" s="57"/>
-      <c r="W3" s="55" t="s">
+      <c r="T3" s="62"/>
+      <c r="U3" s="63"/>
+      <c r="W3" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="57"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="63"/>
     </row>
     <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2159,7 +2156,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -2215,21 +2212,21 @@
     </row>
     <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="52" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>51</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="17"/>
       <c r="G6" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>7</v>
@@ -2250,21 +2247,21 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>54</v>
-      </c>
       <c r="C7" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="17"/>
       <c r="G7" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>7</v>
@@ -2308,7 +2305,7 @@
     </row>
     <row r="9" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="53"/>
@@ -2351,7 +2348,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="52"/>
       <c r="C10" s="53"/>
@@ -2382,7 +2379,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="53"/>
@@ -2413,7 +2410,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="53"/>
@@ -2424,7 +2421,7 @@
       <c r="I12" s="28"/>
       <c r="J12" s="1"/>
       <c r="K12" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>20</v>
@@ -2444,7 +2441,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="52"/>
       <c r="C13" s="53"/>
@@ -2455,7 +2452,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="1"/>
       <c r="K13" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>20</v>
@@ -2475,7 +2472,7 @@
     </row>
     <row r="14" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="52"/>
       <c r="C14" s="53"/>
@@ -2487,7 +2484,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="1"/>
       <c r="K14" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>20</v>
@@ -2518,7 +2515,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="52"/>
       <c r="C15" s="53"/>
@@ -2529,7 +2526,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="1"/>
       <c r="K15" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>20</v>
@@ -2549,7 +2546,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="53"/>
@@ -2560,7 +2557,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="1"/>
       <c r="K16" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>20</v>
@@ -2580,14 +2577,14 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="52"/>
       <c r="C17" s="53"/>
       <c r="D17" s="46"/>
       <c r="E17" s="17"/>
       <c r="G17" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>14</v>
@@ -2611,14 +2608,14 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="52"/>
       <c r="C18" s="53"/>
       <c r="D18" s="46"/>
       <c r="E18" s="17"/>
       <c r="G18" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>14</v>
@@ -2649,7 +2646,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="17"/>
       <c r="G19" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>14</v>
@@ -2730,7 +2727,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="28"/>
       <c r="O21" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
@@ -2747,7 +2744,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="53"/>
@@ -2761,7 +2758,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="28"/>
       <c r="O22" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>17</v>
@@ -2778,7 +2775,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="52"/>
       <c r="C23" s="53"/>
@@ -2792,7 +2789,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="28"/>
       <c r="O23" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>18</v>
@@ -2823,7 +2820,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="28"/>
       <c r="O24" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>19</v>
@@ -2974,7 +2971,7 @@
     </row>
     <row r="30" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="43"/>
       <c r="C30" s="44"/>
@@ -2998,10 +2995,10 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="49" t="s">
         <v>40</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>41</v>
       </c>
       <c r="C31" s="50"/>
       <c r="D31" s="51"/>
@@ -3024,10 +3021,10 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>42</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>43</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="45"/>
@@ -3072,9 +3069,9 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="15"/>
       <c r="G34" s="27"/>
       <c r="H34" s="3"/>
@@ -3094,9 +3091,9 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="16"/>
       <c r="G35" s="29"/>
       <c r="H35" s="30"/>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Pipedrive_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Pipedrive_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80691991-9259-4945-9774-84D61F8F74BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CCD935-0D1D-49DC-B64B-4D529294106B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2073,7 +2073,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,7 +2111,7 @@
       <c r="K2" s="21"/>
       <c r="O2" s="21"/>
     </row>
-    <row r="3" spans="1:33" ht="81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -3296,7 +3296,7 @@
       <formula1>"x"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I27 M6:M27 Q6:Q27 U6:U27 Y6:Y27 Y30:Y35 U30:U35 Q30:Q35 M30:M35 I30:I35" xr:uid="{9972E2DC-0D98-4B85-B7B2-CD185E418B86}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3306,12 +3306,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3520,6 +3514,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3530,23 +3530,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3565,6 +3548,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
